--- a/results/Preliminaries-Estonia.xlsx
+++ b/results/Preliminaries-Estonia.xlsx
@@ -50,49 +50,49 @@
     <t>2019</t>
   </si>
   <si>
-    <t>EKD</t>
-  </si>
-  <si>
-    <t>ERL</t>
-  </si>
-  <si>
-    <t>EÜR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IL </t>
-  </si>
-  <si>
-    <t>KeE</t>
-  </si>
-  <si>
-    <t>M -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ER </t>
-  </si>
-  <si>
-    <t>IRL</t>
-  </si>
-  <si>
-    <t>SDT</t>
-  </si>
-  <si>
-    <t>EKR</t>
-  </si>
-  <si>
-    <t>EVA</t>
-  </si>
-  <si>
-    <t>SDE</t>
+    <t>EKD - Coalition Party  (Eestil Koonderakond, EKD)</t>
+  </si>
+  <si>
+    <t>ERL - People's Union  of Estonia (Eestimaa Rahvaliit, ERL)</t>
+  </si>
+  <si>
+    <t>EÜRP - United People's Party of Estonia (Eestimaa Ühendatud Rahvapartei, EÜRP)</t>
+  </si>
+  <si>
+    <t>IL - Pro Patria Union (Isamaaliit, IL)</t>
+  </si>
+  <si>
+    <t>KeE - Centre Party (Keskerakond, KeE)</t>
+  </si>
+  <si>
+    <t>M - Moderates  (Mõõdukad, M)</t>
+  </si>
+  <si>
+    <t>RE - Reform Party   (, RE)</t>
+  </si>
+  <si>
+    <t>RL - People's Union  (, RL)</t>
+  </si>
+  <si>
+    <t>RP - Res Publica (Res Publica, RP)</t>
+  </si>
+  <si>
+    <t>ER - Estonian Greens (Eestimaa Rohelised, ER)</t>
+  </si>
+  <si>
+    <t>IRL - Pro Patria and Res Publica Union (Isamaa ja Res Publica Liit, IRL)</t>
+  </si>
+  <si>
+    <t>SDTP - Social Democratic Labour Party (, SDTP)</t>
+  </si>
+  <si>
+    <t>EKRE - Conservative People’s Party (Eesti Konservatiivne Rahvaerakond, EKRE)</t>
+  </si>
+  <si>
+    <t>EVA - Estonian Free Party (Eesti Vabaerakond, EVA)</t>
+  </si>
+  <si>
+    <t>SDE - Social Democratic Party (, SDE)</t>
   </si>
   <si>
     <t>Key</t>
@@ -125,856 +125,856 @@
     <t>Key_2</t>
   </si>
   <si>
-    <t>EKD+ERL</t>
-  </si>
-  <si>
-    <t>EKD+EÜR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EKD+IL </t>
-  </si>
-  <si>
-    <t>EKD+KeE</t>
-  </si>
-  <si>
-    <t>EKD+M -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EKD+RE </t>
-  </si>
-  <si>
-    <t>ERL+EÜR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ERL+IL </t>
-  </si>
-  <si>
-    <t>ERL+KeE</t>
-  </si>
-  <si>
-    <t>ERL+M -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ERL+RE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">EÜR+IL </t>
-  </si>
-  <si>
-    <t>EÜR+KeE</t>
-  </si>
-  <si>
-    <t>EÜR+M -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EÜR+RE </t>
-  </si>
-  <si>
-    <t>IL +KeE</t>
-  </si>
-  <si>
-    <t>IL +M -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IL +RE </t>
-  </si>
-  <si>
-    <t>KeE+M -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KeE+RE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">M -+RE </t>
-  </si>
-  <si>
-    <t>EKD+ERL+EÜR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EKD+ERL+IL </t>
-  </si>
-  <si>
-    <t>EKD+ERL+KeE</t>
-  </si>
-  <si>
-    <t>EKD+ERL+M -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EKD+ERL+RE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">EKD+EÜR+IL </t>
-  </si>
-  <si>
-    <t>EKD+EÜR+KeE</t>
-  </si>
-  <si>
-    <t>EKD+EÜR+M -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EKD+EÜR+RE </t>
-  </si>
-  <si>
-    <t>EKD+IL +KeE</t>
-  </si>
-  <si>
-    <t>EKD+IL +M -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EKD+IL +RE </t>
-  </si>
-  <si>
-    <t>EKD+KeE+M -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EKD+KeE+RE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">EKD+M -+RE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ERL+EÜR+IL </t>
-  </si>
-  <si>
-    <t>ERL+EÜR+KeE</t>
-  </si>
-  <si>
-    <t>ERL+EÜR+M -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ERL+EÜR+RE </t>
-  </si>
-  <si>
-    <t>ERL+IL +KeE</t>
-  </si>
-  <si>
-    <t>ERL+IL +M -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ERL+IL +RE </t>
-  </si>
-  <si>
-    <t>ERL+KeE+M -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ERL+KeE+RE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ERL+M -+RE </t>
-  </si>
-  <si>
-    <t>EÜR+IL +KeE</t>
-  </si>
-  <si>
-    <t>EÜR+IL +M -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EÜR+IL +RE </t>
-  </si>
-  <si>
-    <t>EÜR+KeE+M -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EÜR+KeE+RE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">EÜR+M -+RE </t>
-  </si>
-  <si>
-    <t>IL +KeE+M -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IL +KeE+RE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IL +M -+RE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KeE+M -+RE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">EKD+ERL+EÜR+IL </t>
-  </si>
-  <si>
-    <t>EKD+ERL+EÜR+KeE</t>
-  </si>
-  <si>
-    <t>EKD+ERL+EÜR+M -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EKD+ERL+EÜR+RE </t>
-  </si>
-  <si>
-    <t>EKD+ERL+IL +KeE</t>
-  </si>
-  <si>
-    <t>EKD+ERL+IL +M -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EKD+ERL+IL +RE </t>
-  </si>
-  <si>
-    <t>EKD+ERL+KeE+M -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EKD+ERL+KeE+RE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">EKD+ERL+M -+RE </t>
-  </si>
-  <si>
-    <t>EKD+EÜR+IL +KeE</t>
-  </si>
-  <si>
-    <t>EKD+EÜR+IL +M -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EKD+EÜR+IL +RE </t>
-  </si>
-  <si>
-    <t>EKD+EÜR+KeE+M -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EKD+EÜR+KeE+RE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">EKD+EÜR+M -+RE </t>
-  </si>
-  <si>
-    <t>EKD+IL +KeE+M -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EKD+IL +KeE+RE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">EKD+IL +M -+RE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">EKD+KeE+M -+RE </t>
-  </si>
-  <si>
-    <t>ERL+EÜR+IL +KeE</t>
-  </si>
-  <si>
-    <t>ERL+EÜR+IL +M -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ERL+EÜR+IL +RE </t>
-  </si>
-  <si>
-    <t>ERL+EÜR+KeE+M -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ERL+EÜR+KeE+RE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ERL+EÜR+M -+RE </t>
-  </si>
-  <si>
-    <t>ERL+IL +KeE+M -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ERL+IL +KeE+RE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ERL+IL +M -+RE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ERL+KeE+M -+RE </t>
-  </si>
-  <si>
-    <t>EÜR+IL +KeE+M -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EÜR+IL +KeE+RE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">EÜR+IL +M -+RE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">EÜR+KeE+M -+RE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IL +KeE+M -+RE </t>
-  </si>
-  <si>
-    <t>EKD+ERL+EÜR+IL +KeE</t>
-  </si>
-  <si>
-    <t>EKD+ERL+EÜR+IL +M -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EKD+ERL+EÜR+IL +RE </t>
-  </si>
-  <si>
-    <t>EKD+ERL+EÜR+KeE+M -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EKD+ERL+EÜR+KeE+RE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">EKD+ERL+EÜR+M -+RE </t>
-  </si>
-  <si>
-    <t>EKD+ERL+IL +KeE+M -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EKD+ERL+IL +KeE+RE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">EKD+ERL+IL +M -+RE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">EKD+ERL+KeE+M -+RE </t>
-  </si>
-  <si>
-    <t>EKD+EÜR+IL +KeE+M -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EKD+EÜR+IL +KeE+RE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">EKD+EÜR+IL +M -+RE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">EKD+EÜR+KeE+M -+RE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">EKD+IL +KeE+M -+RE </t>
-  </si>
-  <si>
-    <t>ERL+EÜR+IL +KeE+M -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ERL+EÜR+IL +KeE+RE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ERL+EÜR+IL +M -+RE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ERL+EÜR+KeE+M -+RE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ERL+IL +KeE+M -+RE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">EÜR+IL +KeE+M -+RE </t>
-  </si>
-  <si>
-    <t>EKD+ERL+EÜR+IL +KeE+M -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EKD+ERL+EÜR+IL +KeE+RE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">EKD+ERL+EÜR+IL +M -+RE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">EKD+ERL+EÜR+KeE+M -+RE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">EKD+ERL+IL +KeE+M -+RE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">EKD+EÜR+IL +KeE+M -+RE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ERL+EÜR+IL +KeE+M -+RE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">EKD+ERL+EÜR+IL +KeE+M -+RE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IL +RL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IL +RP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KeE+RL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KeE+RP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">M -+RL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">M -+RP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RE +RL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RE +RP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RL +RP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IL +KeE+RL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IL +KeE+RP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IL +M -+RL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IL +M -+RP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IL +RE +RL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IL +RE +RP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IL +RL +RP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KeE+M -+RL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KeE+M -+RP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KeE+RE +RL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KeE+RE +RP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KeE+RL +RP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">M -+RE +RL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">M -+RE +RP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">M -+RL +RP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RE +RL +RP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IL +KeE+M -+RL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IL +KeE+M -+RP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IL +KeE+RE +RL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IL +KeE+RE +RP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IL +KeE+RL +RP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IL +M -+RE +RL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IL +M -+RE +RP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IL +M -+RL +RP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IL +RE +RL +RP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KeE+M -+RE +RL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KeE+M -+RE +RP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KeE+M -+RL +RP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KeE+RE +RL +RP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">M -+RE +RL +RP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IL +KeE+M -+RE +RL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IL +KeE+M -+RE +RP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IL +KeE+M -+RL +RP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IL +KeE+RE +RL +RP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IL +M -+RE +RL +RP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KeE+M -+RE +RL +RP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IL +KeE+M -+RE +RL +RP </t>
-  </si>
-  <si>
-    <t>ER +ERL</t>
-  </si>
-  <si>
-    <t>ER +IRL</t>
-  </si>
-  <si>
-    <t>ER +KeE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ER +RE </t>
-  </si>
-  <si>
-    <t>ER +SDT</t>
-  </si>
-  <si>
-    <t>ERL+IRL</t>
-  </si>
-  <si>
-    <t>ERL+SDT</t>
-  </si>
-  <si>
-    <t>IRL+KeE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IRL+RE </t>
-  </si>
-  <si>
-    <t>IRL+SDT</t>
-  </si>
-  <si>
-    <t>KeE+SDT</t>
-  </si>
-  <si>
-    <t>RE +SDT</t>
-  </si>
-  <si>
-    <t>ER +ERL+IRL</t>
-  </si>
-  <si>
-    <t>ER +ERL+KeE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ER +ERL+RE </t>
-  </si>
-  <si>
-    <t>ER +ERL+SDT</t>
-  </si>
-  <si>
-    <t>ER +IRL+KeE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ER +IRL+RE </t>
-  </si>
-  <si>
-    <t>ER +IRL+SDT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ER +KeE+RE </t>
-  </si>
-  <si>
-    <t>ER +KeE+SDT</t>
-  </si>
-  <si>
-    <t>ER +RE +SDT</t>
-  </si>
-  <si>
-    <t>ERL+IRL+KeE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ERL+IRL+RE </t>
-  </si>
-  <si>
-    <t>ERL+IRL+SDT</t>
-  </si>
-  <si>
-    <t>ERL+KeE+SDT</t>
-  </si>
-  <si>
-    <t>ERL+RE +SDT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IRL+KeE+RE </t>
-  </si>
-  <si>
-    <t>IRL+KeE+SDT</t>
-  </si>
-  <si>
-    <t>IRL+RE +SDT</t>
-  </si>
-  <si>
-    <t>KeE+RE +SDT</t>
-  </si>
-  <si>
-    <t>ER +ERL+IRL+KeE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ER +ERL+IRL+RE </t>
-  </si>
-  <si>
-    <t>ER +ERL+IRL+SDT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ER +ERL+KeE+RE </t>
-  </si>
-  <si>
-    <t>ER +ERL+KeE+SDT</t>
-  </si>
-  <si>
-    <t>ER +ERL+RE +SDT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ER +IRL+KeE+RE </t>
-  </si>
-  <si>
-    <t>ER +IRL+KeE+SDT</t>
-  </si>
-  <si>
-    <t>ER +IRL+RE +SDT</t>
-  </si>
-  <si>
-    <t>ER +KeE+RE +SDT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ERL+IRL+KeE+RE </t>
-  </si>
-  <si>
-    <t>ERL+IRL+KeE+SDT</t>
-  </si>
-  <si>
-    <t>ERL+IRL+RE +SDT</t>
-  </si>
-  <si>
-    <t>ERL+KeE+RE +SDT</t>
-  </si>
-  <si>
-    <t>IRL+KeE+RE +SDT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ER +ERL+IRL+KeE+RE </t>
-  </si>
-  <si>
-    <t>ER +ERL+IRL+KeE+SDT</t>
-  </si>
-  <si>
-    <t>ER +ERL+IRL+RE +SDT</t>
-  </si>
-  <si>
-    <t>ER +ERL+KeE+RE +SDT</t>
-  </si>
-  <si>
-    <t>ER +IRL+KeE+RE +SDT</t>
-  </si>
-  <si>
-    <t>ERL+IRL+KeE+RE +SDT</t>
-  </si>
-  <si>
-    <t>ER +ERL+IRL+KeE+RE +SDT</t>
-  </si>
-  <si>
-    <t>EKR+EVA</t>
-  </si>
-  <si>
-    <t>EKR+IRL</t>
-  </si>
-  <si>
-    <t>EKR+KeE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EKR+RE </t>
-  </si>
-  <si>
-    <t>EKR+SDT</t>
-  </si>
-  <si>
-    <t>EVA+IRL</t>
-  </si>
-  <si>
-    <t>EVA+KeE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EVA+RE </t>
-  </si>
-  <si>
-    <t>EVA+SDT</t>
-  </si>
-  <si>
-    <t>EKR+EVA+IRL</t>
-  </si>
-  <si>
-    <t>EKR+EVA+KeE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EKR+EVA+RE </t>
-  </si>
-  <si>
-    <t>EKR+EVA+SDT</t>
-  </si>
-  <si>
-    <t>EKR+IRL+KeE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EKR+IRL+RE </t>
-  </si>
-  <si>
-    <t>EKR+IRL+SDT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EKR+KeE+RE </t>
-  </si>
-  <si>
-    <t>EKR+KeE+SDT</t>
-  </si>
-  <si>
-    <t>EKR+RE +SDT</t>
-  </si>
-  <si>
-    <t>EVA+IRL+KeE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EVA+IRL+RE </t>
-  </si>
-  <si>
-    <t>EVA+IRL+SDT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EVA+KeE+RE </t>
-  </si>
-  <si>
-    <t>EVA+KeE+SDT</t>
-  </si>
-  <si>
-    <t>EVA+RE +SDT</t>
-  </si>
-  <si>
-    <t>EKR+EVA+IRL+KeE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EKR+EVA+IRL+RE </t>
-  </si>
-  <si>
-    <t>EKR+EVA+IRL+SDT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EKR+EVA+KeE+RE </t>
-  </si>
-  <si>
-    <t>EKR+EVA+KeE+SDT</t>
-  </si>
-  <si>
-    <t>EKR+EVA+RE +SDT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EKR+IRL+KeE+RE </t>
-  </si>
-  <si>
-    <t>EKR+IRL+KeE+SDT</t>
-  </si>
-  <si>
-    <t>EKR+IRL+RE +SDT</t>
-  </si>
-  <si>
-    <t>EKR+KeE+RE +SDT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EVA+IRL+KeE+RE </t>
-  </si>
-  <si>
-    <t>EVA+IRL+KeE+SDT</t>
-  </si>
-  <si>
-    <t>EVA+IRL+RE +SDT</t>
-  </si>
-  <si>
-    <t>EVA+KeE+RE +SDT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EKR+EVA+IRL+KeE+RE </t>
-  </si>
-  <si>
-    <t>EKR+EVA+IRL+KeE+SDT</t>
-  </si>
-  <si>
-    <t>EKR+EVA+IRL+RE +SDT</t>
-  </si>
-  <si>
-    <t>EKR+EVA+KeE+RE +SDT</t>
-  </si>
-  <si>
-    <t>EKR+IRL+KeE+RE +SDT</t>
-  </si>
-  <si>
-    <t>EVA+IRL+KeE+RE +SDT</t>
-  </si>
-  <si>
-    <t>EKR+EVA+IRL+KeE+RE +SDT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EKR+IL </t>
-  </si>
-  <si>
-    <t>EKR+SDE</t>
-  </si>
-  <si>
-    <t>IL +SDE</t>
-  </si>
-  <si>
-    <t>KeE+SDE</t>
-  </si>
-  <si>
-    <t>RE +SDE</t>
-  </si>
-  <si>
-    <t>EKR+IL +KeE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EKR+IL +RE </t>
-  </si>
-  <si>
-    <t>EKR+IL +SDE</t>
-  </si>
-  <si>
-    <t>EKR+KeE+SDE</t>
-  </si>
-  <si>
-    <t>EKR+RE +SDE</t>
-  </si>
-  <si>
-    <t>IL +KeE+SDE</t>
-  </si>
-  <si>
-    <t>IL +RE +SDE</t>
-  </si>
-  <si>
-    <t>KeE+RE +SDE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EKR+IL +KeE+RE </t>
-  </si>
-  <si>
-    <t>EKR+IL +KeE+SDE</t>
-  </si>
-  <si>
-    <t>EKR+IL +RE +SDE</t>
-  </si>
-  <si>
-    <t>EKR+KeE+RE +SDE</t>
-  </si>
-  <si>
-    <t>IL +KeE+RE +SDE</t>
-  </si>
-  <si>
-    <t>EKR+IL +KeE+RE +SDE</t>
+    <t>EKD - Coalition Party  (Eestil Koonderakond, EKD)+ERL - People's Union  of Estonia (Eestimaa Rahvaliit, ERL)</t>
+  </si>
+  <si>
+    <t>EKD - Coalition Party  (Eestil Koonderakond, EKD)+EÜRP - United People's Party of Estonia (Eestimaa Ühendatud Rahvapartei, EÜRP)</t>
+  </si>
+  <si>
+    <t>EKD - Coalition Party  (Eestil Koonderakond, EKD)+IL - Pro Patria Union (Isamaaliit, IL)</t>
+  </si>
+  <si>
+    <t>EKD - Coalition Party  (Eestil Koonderakond, EKD)+KeE - Centre Party (Keskerakond, KeE)</t>
+  </si>
+  <si>
+    <t>EKD - Coalition Party  (Eestil Koonderakond, EKD)+M - Moderates  (Mõõdukad, M)</t>
+  </si>
+  <si>
+    <t>EKD - Coalition Party  (Eestil Koonderakond, EKD)+RE - Reform Party   (, RE)</t>
+  </si>
+  <si>
+    <t>ERL - People's Union  of Estonia (Eestimaa Rahvaliit, ERL)+EÜRP - United People's Party of Estonia (Eestimaa Ühendatud Rahvapartei, EÜRP)</t>
+  </si>
+  <si>
+    <t>ERL - People's Union  of Estonia (Eestimaa Rahvaliit, ERL)+IL - Pro Patria Union (Isamaaliit, IL)</t>
+  </si>
+  <si>
+    <t>ERL - People's Union  of Estonia (Eestimaa Rahvaliit, ERL)+KeE - Centre Party (Keskerakond, KeE)</t>
+  </si>
+  <si>
+    <t>ERL - People's Union  of Estonia (Eestimaa Rahvaliit, ERL)+M - Moderates  (Mõõdukad, M)</t>
+  </si>
+  <si>
+    <t>ERL - People's Union  of Estonia (Eestimaa Rahvaliit, ERL)+RE - Reform Party   (, RE)</t>
+  </si>
+  <si>
+    <t>EÜRP - United People's Party of Estonia (Eestimaa Ühendatud Rahvapartei, EÜRP)+IL - Pro Patria Union (Isamaaliit, IL)</t>
+  </si>
+  <si>
+    <t>EÜRP - United People's Party of Estonia (Eestimaa Ühendatud Rahvapartei, EÜRP)+KeE - Centre Party (Keskerakond, KeE)</t>
+  </si>
+  <si>
+    <t>EÜRP - United People's Party of Estonia (Eestimaa Ühendatud Rahvapartei, EÜRP)+M - Moderates  (Mõõdukad, M)</t>
+  </si>
+  <si>
+    <t>EÜRP - United People's Party of Estonia (Eestimaa Ühendatud Rahvapartei, EÜRP)+RE - Reform Party   (, RE)</t>
+  </si>
+  <si>
+    <t>IL - Pro Patria Union (Isamaaliit, IL)+KeE - Centre Party (Keskerakond, KeE)</t>
+  </si>
+  <si>
+    <t>IL - Pro Patria Union (Isamaaliit, IL)+M - Moderates  (Mõõdukad, M)</t>
+  </si>
+  <si>
+    <t>IL - Pro Patria Union (Isamaaliit, IL)+RE - Reform Party   (, RE)</t>
+  </si>
+  <si>
+    <t>KeE - Centre Party (Keskerakond, KeE)+M - Moderates  (Mõõdukad, M)</t>
+  </si>
+  <si>
+    <t>KeE - Centre Party (Keskerakond, KeE)+RE - Reform Party   (, RE)</t>
+  </si>
+  <si>
+    <t>M - Moderates  (Mõõdukad, M)+RE - Reform Party   (, RE)</t>
+  </si>
+  <si>
+    <t>EKD - Coalition Party  (Eestil Koonderakond, EKD)+ERL - People's Union  of Estonia (Eestimaa Rahvaliit, ERL)+EÜRP - United People's Party of Estonia (Eestimaa Ühendatud Rahvapartei, EÜRP)</t>
+  </si>
+  <si>
+    <t>EKD - Coalition Party  (Eestil Koonderakond, EKD)+ERL - People's Union  of Estonia (Eestimaa Rahvaliit, ERL)+IL - Pro Patria Union (Isamaaliit, IL)</t>
+  </si>
+  <si>
+    <t>EKD - Coalition Party  (Eestil Koonderakond, EKD)+ERL - People's Union  of Estonia (Eestimaa Rahvaliit, ERL)+KeE - Centre Party (Keskerakond, KeE)</t>
+  </si>
+  <si>
+    <t>EKD - Coalition Party  (Eestil Koonderakond, EKD)+ERL - People's Union  of Estonia (Eestimaa Rahvaliit, ERL)+M - Moderates  (Mõõdukad, M)</t>
+  </si>
+  <si>
+    <t>EKD - Coalition Party  (Eestil Koonderakond, EKD)+ERL - People's Union  of Estonia (Eestimaa Rahvaliit, ERL)+RE - Reform Party   (, RE)</t>
+  </si>
+  <si>
+    <t>EKD - Coalition Party  (Eestil Koonderakond, EKD)+EÜRP - United People's Party of Estonia (Eestimaa Ühendatud Rahvapartei, EÜRP)+IL - Pro Patria Union (Isamaaliit, IL)</t>
+  </si>
+  <si>
+    <t>EKD - Coalition Party  (Eestil Koonderakond, EKD)+EÜRP - United People's Party of Estonia (Eestimaa Ühendatud Rahvapartei, EÜRP)+KeE - Centre Party (Keskerakond, KeE)</t>
+  </si>
+  <si>
+    <t>EKD - Coalition Party  (Eestil Koonderakond, EKD)+EÜRP - United People's Party of Estonia (Eestimaa Ühendatud Rahvapartei, EÜRP)+M - Moderates  (Mõõdukad, M)</t>
+  </si>
+  <si>
+    <t>EKD - Coalition Party  (Eestil Koonderakond, EKD)+EÜRP - United People's Party of Estonia (Eestimaa Ühendatud Rahvapartei, EÜRP)+RE - Reform Party   (, RE)</t>
+  </si>
+  <si>
+    <t>EKD - Coalition Party  (Eestil Koonderakond, EKD)+IL - Pro Patria Union (Isamaaliit, IL)+KeE - Centre Party (Keskerakond, KeE)</t>
+  </si>
+  <si>
+    <t>EKD - Coalition Party  (Eestil Koonderakond, EKD)+IL - Pro Patria Union (Isamaaliit, IL)+M - Moderates  (Mõõdukad, M)</t>
+  </si>
+  <si>
+    <t>EKD - Coalition Party  (Eestil Koonderakond, EKD)+IL - Pro Patria Union (Isamaaliit, IL)+RE - Reform Party   (, RE)</t>
+  </si>
+  <si>
+    <t>EKD - Coalition Party  (Eestil Koonderakond, EKD)+KeE - Centre Party (Keskerakond, KeE)+M - Moderates  (Mõõdukad, M)</t>
+  </si>
+  <si>
+    <t>EKD - Coalition Party  (Eestil Koonderakond, EKD)+KeE - Centre Party (Keskerakond, KeE)+RE - Reform Party   (, RE)</t>
+  </si>
+  <si>
+    <t>EKD - Coalition Party  (Eestil Koonderakond, EKD)+M - Moderates  (Mõõdukad, M)+RE - Reform Party   (, RE)</t>
+  </si>
+  <si>
+    <t>ERL - People's Union  of Estonia (Eestimaa Rahvaliit, ERL)+EÜRP - United People's Party of Estonia (Eestimaa Ühendatud Rahvapartei, EÜRP)+IL - Pro Patria Union (Isamaaliit, IL)</t>
+  </si>
+  <si>
+    <t>ERL - People's Union  of Estonia (Eestimaa Rahvaliit, ERL)+EÜRP - United People's Party of Estonia (Eestimaa Ühendatud Rahvapartei, EÜRP)+KeE - Centre Party (Keskerakond, KeE)</t>
+  </si>
+  <si>
+    <t>ERL - People's Union  of Estonia (Eestimaa Rahvaliit, ERL)+EÜRP - United People's Party of Estonia (Eestimaa Ühendatud Rahvapartei, EÜRP)+M - Moderates  (Mõõdukad, M)</t>
+  </si>
+  <si>
+    <t>ERL - People's Union  of Estonia (Eestimaa Rahvaliit, ERL)+EÜRP - United People's Party of Estonia (Eestimaa Ühendatud Rahvapartei, EÜRP)+RE - Reform Party   (, RE)</t>
+  </si>
+  <si>
+    <t>ERL - People's Union  of Estonia (Eestimaa Rahvaliit, ERL)+IL - Pro Patria Union (Isamaaliit, IL)+KeE - Centre Party (Keskerakond, KeE)</t>
+  </si>
+  <si>
+    <t>ERL - People's Union  of Estonia (Eestimaa Rahvaliit, ERL)+IL - Pro Patria Union (Isamaaliit, IL)+M - Moderates  (Mõõdukad, M)</t>
+  </si>
+  <si>
+    <t>ERL - People's Union  of Estonia (Eestimaa Rahvaliit, ERL)+IL - Pro Patria Union (Isamaaliit, IL)+RE - Reform Party   (, RE)</t>
+  </si>
+  <si>
+    <t>ERL - People's Union  of Estonia (Eestimaa Rahvaliit, ERL)+KeE - Centre Party (Keskerakond, KeE)+M - Moderates  (Mõõdukad, M)</t>
+  </si>
+  <si>
+    <t>ERL - People's Union  of Estonia (Eestimaa Rahvaliit, ERL)+KeE - Centre Party (Keskerakond, KeE)+RE - Reform Party   (, RE)</t>
+  </si>
+  <si>
+    <t>ERL - People's Union  of Estonia (Eestimaa Rahvaliit, ERL)+M - Moderates  (Mõõdukad, M)+RE - Reform Party   (, RE)</t>
+  </si>
+  <si>
+    <t>EÜRP - United People's Party of Estonia (Eestimaa Ühendatud Rahvapartei, EÜRP)+IL - Pro Patria Union (Isamaaliit, IL)+KeE - Centre Party (Keskerakond, KeE)</t>
+  </si>
+  <si>
+    <t>EÜRP - United People's Party of Estonia (Eestimaa Ühendatud Rahvapartei, EÜRP)+IL - Pro Patria Union (Isamaaliit, IL)+M - Moderates  (Mõõdukad, M)</t>
+  </si>
+  <si>
+    <t>EÜRP - United People's Party of Estonia (Eestimaa Ühendatud Rahvapartei, EÜRP)+IL - Pro Patria Union (Isamaaliit, IL)+RE - Reform Party   (, RE)</t>
+  </si>
+  <si>
+    <t>EÜRP - United People's Party of Estonia (Eestimaa Ühendatud Rahvapartei, EÜRP)+KeE - Centre Party (Keskerakond, KeE)+M - Moderates  (Mõõdukad, M)</t>
+  </si>
+  <si>
+    <t>EÜRP - United People's Party of Estonia (Eestimaa Ühendatud Rahvapartei, EÜRP)+KeE - Centre Party (Keskerakond, KeE)+RE - Reform Party   (, RE)</t>
+  </si>
+  <si>
+    <t>EÜRP - United People's Party of Estonia (Eestimaa Ühendatud Rahvapartei, EÜRP)+M - Moderates  (Mõõdukad, M)+RE - Reform Party   (, RE)</t>
+  </si>
+  <si>
+    <t>IL - Pro Patria Union (Isamaaliit, IL)+KeE - Centre Party (Keskerakond, KeE)+M - Moderates  (Mõõdukad, M)</t>
+  </si>
+  <si>
+    <t>IL - Pro Patria Union (Isamaaliit, IL)+KeE - Centre Party (Keskerakond, KeE)+RE - Reform Party   (, RE)</t>
+  </si>
+  <si>
+    <t>IL - Pro Patria Union (Isamaaliit, IL)+M - Moderates  (Mõõdukad, M)+RE - Reform Party   (, RE)</t>
+  </si>
+  <si>
+    <t>KeE - Centre Party (Keskerakond, KeE)+M - Moderates  (Mõõdukad, M)+RE - Reform Party   (, RE)</t>
+  </si>
+  <si>
+    <t>EKD - Coalition Party  (Eestil Koonderakond, EKD)+ERL - People's Union  of Estonia (Eestimaa Rahvaliit, ERL)+EÜRP - United People's Party of Estonia (Eestimaa Ühendatud Rahvapartei, EÜRP)+IL - Pro Patria Union (Isamaaliit, IL)</t>
+  </si>
+  <si>
+    <t>EKD - Coalition Party  (Eestil Koonderakond, EKD)+ERL - People's Union  of Estonia (Eestimaa Rahvaliit, ERL)+EÜRP - United People's Party of Estonia (Eestimaa Ühendatud Rahvapartei, EÜRP)+KeE - Centre Party (Keskerakond, KeE)</t>
+  </si>
+  <si>
+    <t>EKD - Coalition Party  (Eestil Koonderakond, EKD)+ERL - People's Union  of Estonia (Eestimaa Rahvaliit, ERL)+EÜRP - United People's Party of Estonia (Eestimaa Ühendatud Rahvapartei, EÜRP)+M - Moderates  (Mõõdukad, M)</t>
+  </si>
+  <si>
+    <t>EKD - Coalition Party  (Eestil Koonderakond, EKD)+ERL - People's Union  of Estonia (Eestimaa Rahvaliit, ERL)+EÜRP - United People's Party of Estonia (Eestimaa Ühendatud Rahvapartei, EÜRP)+RE - Reform Party   (, RE)</t>
+  </si>
+  <si>
+    <t>EKD - Coalition Party  (Eestil Koonderakond, EKD)+ERL - People's Union  of Estonia (Eestimaa Rahvaliit, ERL)+IL - Pro Patria Union (Isamaaliit, IL)+KeE - Centre Party (Keskerakond, KeE)</t>
+  </si>
+  <si>
+    <t>EKD - Coalition Party  (Eestil Koonderakond, EKD)+ERL - People's Union  of Estonia (Eestimaa Rahvaliit, ERL)+IL - Pro Patria Union (Isamaaliit, IL)+M - Moderates  (Mõõdukad, M)</t>
+  </si>
+  <si>
+    <t>EKD - Coalition Party  (Eestil Koonderakond, EKD)+ERL - People's Union  of Estonia (Eestimaa Rahvaliit, ERL)+IL - Pro Patria Union (Isamaaliit, IL)+RE - Reform Party   (, RE)</t>
+  </si>
+  <si>
+    <t>EKD - Coalition Party  (Eestil Koonderakond, EKD)+ERL - People's Union  of Estonia (Eestimaa Rahvaliit, ERL)+KeE - Centre Party (Keskerakond, KeE)+M - Moderates  (Mõõdukad, M)</t>
+  </si>
+  <si>
+    <t>EKD - Coalition Party  (Eestil Koonderakond, EKD)+ERL - People's Union  of Estonia (Eestimaa Rahvaliit, ERL)+KeE - Centre Party (Keskerakond, KeE)+RE - Reform Party   (, RE)</t>
+  </si>
+  <si>
+    <t>EKD - Coalition Party  (Eestil Koonderakond, EKD)+ERL - People's Union  of Estonia (Eestimaa Rahvaliit, ERL)+M - Moderates  (Mõõdukad, M)+RE - Reform Party   (, RE)</t>
+  </si>
+  <si>
+    <t>EKD - Coalition Party  (Eestil Koonderakond, EKD)+EÜRP - United People's Party of Estonia (Eestimaa Ühendatud Rahvapartei, EÜRP)+IL - Pro Patria Union (Isamaaliit, IL)+KeE - Centre Party (Keskerakond, KeE)</t>
+  </si>
+  <si>
+    <t>EKD - Coalition Party  (Eestil Koonderakond, EKD)+EÜRP - United People's Party of Estonia (Eestimaa Ühendatud Rahvapartei, EÜRP)+IL - Pro Patria Union (Isamaaliit, IL)+M - Moderates  (Mõõdukad, M)</t>
+  </si>
+  <si>
+    <t>EKD - Coalition Party  (Eestil Koonderakond, EKD)+EÜRP - United People's Party of Estonia (Eestimaa Ühendatud Rahvapartei, EÜRP)+IL - Pro Patria Union (Isamaaliit, IL)+RE - Reform Party   (, RE)</t>
+  </si>
+  <si>
+    <t>EKD - Coalition Party  (Eestil Koonderakond, EKD)+EÜRP - United People's Party of Estonia (Eestimaa Ühendatud Rahvapartei, EÜRP)+KeE - Centre Party (Keskerakond, KeE)+M - Moderates  (Mõõdukad, M)</t>
+  </si>
+  <si>
+    <t>EKD - Coalition Party  (Eestil Koonderakond, EKD)+EÜRP - United People's Party of Estonia (Eestimaa Ühendatud Rahvapartei, EÜRP)+KeE - Centre Party (Keskerakond, KeE)+RE - Reform Party   (, RE)</t>
+  </si>
+  <si>
+    <t>EKD - Coalition Party  (Eestil Koonderakond, EKD)+EÜRP - United People's Party of Estonia (Eestimaa Ühendatud Rahvapartei, EÜRP)+M - Moderates  (Mõõdukad, M)+RE - Reform Party   (, RE)</t>
+  </si>
+  <si>
+    <t>EKD - Coalition Party  (Eestil Koonderakond, EKD)+IL - Pro Patria Union (Isamaaliit, IL)+KeE - Centre Party (Keskerakond, KeE)+M - Moderates  (Mõõdukad, M)</t>
+  </si>
+  <si>
+    <t>EKD - Coalition Party  (Eestil Koonderakond, EKD)+IL - Pro Patria Union (Isamaaliit, IL)+KeE - Centre Party (Keskerakond, KeE)+RE - Reform Party   (, RE)</t>
+  </si>
+  <si>
+    <t>EKD - Coalition Party  (Eestil Koonderakond, EKD)+IL - Pro Patria Union (Isamaaliit, IL)+M - Moderates  (Mõõdukad, M)+RE - Reform Party   (, RE)</t>
+  </si>
+  <si>
+    <t>EKD - Coalition Party  (Eestil Koonderakond, EKD)+KeE - Centre Party (Keskerakond, KeE)+M - Moderates  (Mõõdukad, M)+RE - Reform Party   (, RE)</t>
+  </si>
+  <si>
+    <t>ERL - People's Union  of Estonia (Eestimaa Rahvaliit, ERL)+EÜRP - United People's Party of Estonia (Eestimaa Ühendatud Rahvapartei, EÜRP)+IL - Pro Patria Union (Isamaaliit, IL)+KeE - Centre Party (Keskerakond, KeE)</t>
+  </si>
+  <si>
+    <t>ERL - People's Union  of Estonia (Eestimaa Rahvaliit, ERL)+EÜRP - United People's Party of Estonia (Eestimaa Ühendatud Rahvapartei, EÜRP)+IL - Pro Patria Union (Isamaaliit, IL)+M - Moderates  (Mõõdukad, M)</t>
+  </si>
+  <si>
+    <t>ERL - People's Union  of Estonia (Eestimaa Rahvaliit, ERL)+EÜRP - United People's Party of Estonia (Eestimaa Ühendatud Rahvapartei, EÜRP)+IL - Pro Patria Union (Isamaaliit, IL)+RE - Reform Party   (, RE)</t>
+  </si>
+  <si>
+    <t>ERL - People's Union  of Estonia (Eestimaa Rahvaliit, ERL)+EÜRP - United People's Party of Estonia (Eestimaa Ühendatud Rahvapartei, EÜRP)+KeE - Centre Party (Keskerakond, KeE)+M - Moderates  (Mõõdukad, M)</t>
+  </si>
+  <si>
+    <t>ERL - People's Union  of Estonia (Eestimaa Rahvaliit, ERL)+EÜRP - United People's Party of Estonia (Eestimaa Ühendatud Rahvapartei, EÜRP)+KeE - Centre Party (Keskerakond, KeE)+RE - Reform Party   (, RE)</t>
+  </si>
+  <si>
+    <t>ERL - People's Union  of Estonia (Eestimaa Rahvaliit, ERL)+EÜRP - United People's Party of Estonia (Eestimaa Ühendatud Rahvapartei, EÜRP)+M - Moderates  (Mõõdukad, M)+RE - Reform Party   (, RE)</t>
+  </si>
+  <si>
+    <t>ERL - People's Union  of Estonia (Eestimaa Rahvaliit, ERL)+IL - Pro Patria Union (Isamaaliit, IL)+KeE - Centre Party (Keskerakond, KeE)+M - Moderates  (Mõõdukad, M)</t>
+  </si>
+  <si>
+    <t>ERL - People's Union  of Estonia (Eestimaa Rahvaliit, ERL)+IL - Pro Patria Union (Isamaaliit, IL)+KeE - Centre Party (Keskerakond, KeE)+RE - Reform Party   (, RE)</t>
+  </si>
+  <si>
+    <t>ERL - People's Union  of Estonia (Eestimaa Rahvaliit, ERL)+IL - Pro Patria Union (Isamaaliit, IL)+M - Moderates  (Mõõdukad, M)+RE - Reform Party   (, RE)</t>
+  </si>
+  <si>
+    <t>ERL - People's Union  of Estonia (Eestimaa Rahvaliit, ERL)+KeE - Centre Party (Keskerakond, KeE)+M - Moderates  (Mõõdukad, M)+RE - Reform Party   (, RE)</t>
+  </si>
+  <si>
+    <t>EÜRP - United People's Party of Estonia (Eestimaa Ühendatud Rahvapartei, EÜRP)+IL - Pro Patria Union (Isamaaliit, IL)+KeE - Centre Party (Keskerakond, KeE)+M - Moderates  (Mõõdukad, M)</t>
+  </si>
+  <si>
+    <t>EÜRP - United People's Party of Estonia (Eestimaa Ühendatud Rahvapartei, EÜRP)+IL - Pro Patria Union (Isamaaliit, IL)+KeE - Centre Party (Keskerakond, KeE)+RE - Reform Party   (, RE)</t>
+  </si>
+  <si>
+    <t>EÜRP - United People's Party of Estonia (Eestimaa Ühendatud Rahvapartei, EÜRP)+IL - Pro Patria Union (Isamaaliit, IL)+M - Moderates  (Mõõdukad, M)+RE - Reform Party   (, RE)</t>
+  </si>
+  <si>
+    <t>EÜRP - United People's Party of Estonia (Eestimaa Ühendatud Rahvapartei, EÜRP)+KeE - Centre Party (Keskerakond, KeE)+M - Moderates  (Mõõdukad, M)+RE - Reform Party   (, RE)</t>
+  </si>
+  <si>
+    <t>IL - Pro Patria Union (Isamaaliit, IL)+KeE - Centre Party (Keskerakond, KeE)+M - Moderates  (Mõõdukad, M)+RE - Reform Party   (, RE)</t>
+  </si>
+  <si>
+    <t>EKD - Coalition Party  (Eestil Koonderakond, EKD)+ERL - People's Union  of Estonia (Eestimaa Rahvaliit, ERL)+EÜRP - United People's Party of Estonia (Eestimaa Ühendatud Rahvapartei, EÜRP)+IL - Pro Patria Union (Isamaaliit, IL)+KeE - Centre Party (Keskerakond, KeE)</t>
+  </si>
+  <si>
+    <t>EKD - Coalition Party  (Eestil Koonderakond, EKD)+ERL - People's Union  of Estonia (Eestimaa Rahvaliit, ERL)+EÜRP - United People's Party of Estonia (Eestimaa Ühendatud Rahvapartei, EÜRP)+IL - Pro Patria Union (Isamaaliit, IL)+M - Moderates  (Mõõdukad, M)</t>
+  </si>
+  <si>
+    <t>EKD - Coalition Party  (Eestil Koonderakond, EKD)+ERL - People's Union  of Estonia (Eestimaa Rahvaliit, ERL)+EÜRP - United People's Party of Estonia (Eestimaa Ühendatud Rahvapartei, EÜRP)+IL - Pro Patria Union (Isamaaliit, IL)+RE - Reform Party   (, RE)</t>
+  </si>
+  <si>
+    <t>EKD - Coalition Party  (Eestil Koonderakond, EKD)+ERL - People's Union  of Estonia (Eestimaa Rahvaliit, ERL)+EÜRP - United People's Party of Estonia (Eestimaa Ühendatud Rahvapartei, EÜRP)+KeE - Centre Party (Keskerakond, KeE)+M - Moderates  (Mõõdukad, M)</t>
+  </si>
+  <si>
+    <t>EKD - Coalition Party  (Eestil Koonderakond, EKD)+ERL - People's Union  of Estonia (Eestimaa Rahvaliit, ERL)+EÜRP - United People's Party of Estonia (Eestimaa Ühendatud Rahvapartei, EÜRP)+KeE - Centre Party (Keskerakond, KeE)+RE - Reform Party   (, RE)</t>
+  </si>
+  <si>
+    <t>EKD - Coalition Party  (Eestil Koonderakond, EKD)+ERL - People's Union  of Estonia (Eestimaa Rahvaliit, ERL)+EÜRP - United People's Party of Estonia (Eestimaa Ühendatud Rahvapartei, EÜRP)+M - Moderates  (Mõõdukad, M)+RE - Reform Party   (, RE)</t>
+  </si>
+  <si>
+    <t>EKD - Coalition Party  (Eestil Koonderakond, EKD)+ERL - People's Union  of Estonia (Eestimaa Rahvaliit, ERL)+IL - Pro Patria Union (Isamaaliit, IL)+KeE - Centre Party (Keskerakond, KeE)+M - Moderates  (Mõõdukad, M)</t>
+  </si>
+  <si>
+    <t>EKD - Coalition Party  (Eestil Koonderakond, EKD)+ERL - People's Union  of Estonia (Eestimaa Rahvaliit, ERL)+IL - Pro Patria Union (Isamaaliit, IL)+KeE - Centre Party (Keskerakond, KeE)+RE - Reform Party   (, RE)</t>
+  </si>
+  <si>
+    <t>EKD - Coalition Party  (Eestil Koonderakond, EKD)+ERL - People's Union  of Estonia (Eestimaa Rahvaliit, ERL)+IL - Pro Patria Union (Isamaaliit, IL)+M - Moderates  (Mõõdukad, M)+RE - Reform Party   (, RE)</t>
+  </si>
+  <si>
+    <t>EKD - Coalition Party  (Eestil Koonderakond, EKD)+ERL - People's Union  of Estonia (Eestimaa Rahvaliit, ERL)+KeE - Centre Party (Keskerakond, KeE)+M - Moderates  (Mõõdukad, M)+RE - Reform Party   (, RE)</t>
+  </si>
+  <si>
+    <t>EKD - Coalition Party  (Eestil Koonderakond, EKD)+EÜRP - United People's Party of Estonia (Eestimaa Ühendatud Rahvapartei, EÜRP)+IL - Pro Patria Union (Isamaaliit, IL)+KeE - Centre Party (Keskerakond, KeE)+M - Moderates  (Mõõdukad, M)</t>
+  </si>
+  <si>
+    <t>EKD - Coalition Party  (Eestil Koonderakond, EKD)+EÜRP - United People's Party of Estonia (Eestimaa Ühendatud Rahvapartei, EÜRP)+IL - Pro Patria Union (Isamaaliit, IL)+KeE - Centre Party (Keskerakond, KeE)+RE - Reform Party   (, RE)</t>
+  </si>
+  <si>
+    <t>EKD - Coalition Party  (Eestil Koonderakond, EKD)+EÜRP - United People's Party of Estonia (Eestimaa Ühendatud Rahvapartei, EÜRP)+IL - Pro Patria Union (Isamaaliit, IL)+M - Moderates  (Mõõdukad, M)+RE - Reform Party   (, RE)</t>
+  </si>
+  <si>
+    <t>EKD - Coalition Party  (Eestil Koonderakond, EKD)+EÜRP - United People's Party of Estonia (Eestimaa Ühendatud Rahvapartei, EÜRP)+KeE - Centre Party (Keskerakond, KeE)+M - Moderates  (Mõõdukad, M)+RE - Reform Party   (, RE)</t>
+  </si>
+  <si>
+    <t>EKD - Coalition Party  (Eestil Koonderakond, EKD)+IL - Pro Patria Union (Isamaaliit, IL)+KeE - Centre Party (Keskerakond, KeE)+M - Moderates  (Mõõdukad, M)+RE - Reform Party   (, RE)</t>
+  </si>
+  <si>
+    <t>ERL - People's Union  of Estonia (Eestimaa Rahvaliit, ERL)+EÜRP - United People's Party of Estonia (Eestimaa Ühendatud Rahvapartei, EÜRP)+IL - Pro Patria Union (Isamaaliit, IL)+KeE - Centre Party (Keskerakond, KeE)+M - Moderates  (Mõõdukad, M)</t>
+  </si>
+  <si>
+    <t>ERL - People's Union  of Estonia (Eestimaa Rahvaliit, ERL)+EÜRP - United People's Party of Estonia (Eestimaa Ühendatud Rahvapartei, EÜRP)+IL - Pro Patria Union (Isamaaliit, IL)+KeE - Centre Party (Keskerakond, KeE)+RE - Reform Party   (, RE)</t>
+  </si>
+  <si>
+    <t>ERL - People's Union  of Estonia (Eestimaa Rahvaliit, ERL)+EÜRP - United People's Party of Estonia (Eestimaa Ühendatud Rahvapartei, EÜRP)+IL - Pro Patria Union (Isamaaliit, IL)+M - Moderates  (Mõõdukad, M)+RE - Reform Party   (, RE)</t>
+  </si>
+  <si>
+    <t>ERL - People's Union  of Estonia (Eestimaa Rahvaliit, ERL)+EÜRP - United People's Party of Estonia (Eestimaa Ühendatud Rahvapartei, EÜRP)+KeE - Centre Party (Keskerakond, KeE)+M - Moderates  (Mõõdukad, M)+RE - Reform Party   (, RE)</t>
+  </si>
+  <si>
+    <t>ERL - People's Union  of Estonia (Eestimaa Rahvaliit, ERL)+IL - Pro Patria Union (Isamaaliit, IL)+KeE - Centre Party (Keskerakond, KeE)+M - Moderates  (Mõõdukad, M)+RE - Reform Party   (, RE)</t>
+  </si>
+  <si>
+    <t>EÜRP - United People's Party of Estonia (Eestimaa Ühendatud Rahvapartei, EÜRP)+IL - Pro Patria Union (Isamaaliit, IL)+KeE - Centre Party (Keskerakond, KeE)+M - Moderates  (Mõõdukad, M)+RE - Reform Party   (, RE)</t>
+  </si>
+  <si>
+    <t>EKD - Coalition Party  (Eestil Koonderakond, EKD)+ERL - People's Union  of Estonia (Eestimaa Rahvaliit, ERL)+EÜRP - United People's Party of Estonia (Eestimaa Ühendatud Rahvapartei, EÜRP)+IL - Pro Patria Union (Isamaaliit, IL)+KeE - Centre Party (Keskerakond, KeE)+M - Moderates  (Mõõdukad, M)</t>
+  </si>
+  <si>
+    <t>EKD - Coalition Party  (Eestil Koonderakond, EKD)+ERL - People's Union  of Estonia (Eestimaa Rahvaliit, ERL)+EÜRP - United People's Party of Estonia (Eestimaa Ühendatud Rahvapartei, EÜRP)+IL - Pro Patria Union (Isamaaliit, IL)+KeE - Centre Party (Keskerakond, KeE)+RE - Reform Party   (, RE)</t>
+  </si>
+  <si>
+    <t>EKD - Coalition Party  (Eestil Koonderakond, EKD)+ERL - People's Union  of Estonia (Eestimaa Rahvaliit, ERL)+EÜRP - United People's Party of Estonia (Eestimaa Ühendatud Rahvapartei, EÜRP)+IL - Pro Patria Union (Isamaaliit, IL)+M - Moderates  (Mõõdukad, M)+RE - Reform Party   (, RE)</t>
+  </si>
+  <si>
+    <t>EKD - Coalition Party  (Eestil Koonderakond, EKD)+ERL - People's Union  of Estonia (Eestimaa Rahvaliit, ERL)+EÜRP - United People's Party of Estonia (Eestimaa Ühendatud Rahvapartei, EÜRP)+KeE - Centre Party (Keskerakond, KeE)+M - Moderates  (Mõõdukad, M)+RE - Reform Party   (, RE)</t>
+  </si>
+  <si>
+    <t>EKD - Coalition Party  (Eestil Koonderakond, EKD)+ERL - People's Union  of Estonia (Eestimaa Rahvaliit, ERL)+IL - Pro Patria Union (Isamaaliit, IL)+KeE - Centre Party (Keskerakond, KeE)+M - Moderates  (Mõõdukad, M)+RE - Reform Party   (, RE)</t>
+  </si>
+  <si>
+    <t>EKD - Coalition Party  (Eestil Koonderakond, EKD)+EÜRP - United People's Party of Estonia (Eestimaa Ühendatud Rahvapartei, EÜRP)+IL - Pro Patria Union (Isamaaliit, IL)+KeE - Centre Party (Keskerakond, KeE)+M - Moderates  (Mõõdukad, M)+RE - Reform Party   (, RE)</t>
+  </si>
+  <si>
+    <t>ERL - People's Union  of Estonia (Eestimaa Rahvaliit, ERL)+EÜRP - United People's Party of Estonia (Eestimaa Ühendatud Rahvapartei, EÜRP)+IL - Pro Patria Union (Isamaaliit, IL)+KeE - Centre Party (Keskerakond, KeE)+M - Moderates  (Mõõdukad, M)+RE - Reform Party   (, RE)</t>
+  </si>
+  <si>
+    <t>EKD - Coalition Party  (Eestil Koonderakond, EKD)+ERL - People's Union  of Estonia (Eestimaa Rahvaliit, ERL)+EÜRP - United People's Party of Estonia (Eestimaa Ühendatud Rahvapartei, EÜRP)+IL - Pro Patria Union (Isamaaliit, IL)+KeE - Centre Party (Keskerakond, KeE)+M - Moderates  (Mõõdukad, M)+RE - Reform Party   (, RE)</t>
+  </si>
+  <si>
+    <t>IL - Pro Patria Union (Isamaaliit, IL)+RL - People's Union  (, RL)</t>
+  </si>
+  <si>
+    <t>IL - Pro Patria Union (Isamaaliit, IL)+RP - Res Publica (Res Publica, RP)</t>
+  </si>
+  <si>
+    <t>KeE - Centre Party (Keskerakond, KeE)+RL - People's Union  (, RL)</t>
+  </si>
+  <si>
+    <t>KeE - Centre Party (Keskerakond, KeE)+RP - Res Publica (Res Publica, RP)</t>
+  </si>
+  <si>
+    <t>M - Moderates  (Mõõdukad, M)+RL - People's Union  (, RL)</t>
+  </si>
+  <si>
+    <t>M - Moderates  (Mõõdukad, M)+RP - Res Publica (Res Publica, RP)</t>
+  </si>
+  <si>
+    <t>RE - Reform Party   (, RE)+RL - People's Union  (, RL)</t>
+  </si>
+  <si>
+    <t>RE - Reform Party   (, RE)+RP - Res Publica (Res Publica, RP)</t>
+  </si>
+  <si>
+    <t>RL - People's Union  (, RL)+RP - Res Publica (Res Publica, RP)</t>
+  </si>
+  <si>
+    <t>IL - Pro Patria Union (Isamaaliit, IL)+KeE - Centre Party (Keskerakond, KeE)+RL - People's Union  (, RL)</t>
+  </si>
+  <si>
+    <t>IL - Pro Patria Union (Isamaaliit, IL)+KeE - Centre Party (Keskerakond, KeE)+RP - Res Publica (Res Publica, RP)</t>
+  </si>
+  <si>
+    <t>IL - Pro Patria Union (Isamaaliit, IL)+M - Moderates  (Mõõdukad, M)+RL - People's Union  (, RL)</t>
+  </si>
+  <si>
+    <t>IL - Pro Patria Union (Isamaaliit, IL)+M - Moderates  (Mõõdukad, M)+RP - Res Publica (Res Publica, RP)</t>
+  </si>
+  <si>
+    <t>IL - Pro Patria Union (Isamaaliit, IL)+RE - Reform Party   (, RE)+RL - People's Union  (, RL)</t>
+  </si>
+  <si>
+    <t>IL - Pro Patria Union (Isamaaliit, IL)+RE - Reform Party   (, RE)+RP - Res Publica (Res Publica, RP)</t>
+  </si>
+  <si>
+    <t>IL - Pro Patria Union (Isamaaliit, IL)+RL - People's Union  (, RL)+RP - Res Publica (Res Publica, RP)</t>
+  </si>
+  <si>
+    <t>KeE - Centre Party (Keskerakond, KeE)+M - Moderates  (Mõõdukad, M)+RL - People's Union  (, RL)</t>
+  </si>
+  <si>
+    <t>KeE - Centre Party (Keskerakond, KeE)+M - Moderates  (Mõõdukad, M)+RP - Res Publica (Res Publica, RP)</t>
+  </si>
+  <si>
+    <t>KeE - Centre Party (Keskerakond, KeE)+RE - Reform Party   (, RE)+RL - People's Union  (, RL)</t>
+  </si>
+  <si>
+    <t>KeE - Centre Party (Keskerakond, KeE)+RE - Reform Party   (, RE)+RP - Res Publica (Res Publica, RP)</t>
+  </si>
+  <si>
+    <t>KeE - Centre Party (Keskerakond, KeE)+RL - People's Union  (, RL)+RP - Res Publica (Res Publica, RP)</t>
+  </si>
+  <si>
+    <t>M - Moderates  (Mõõdukad, M)+RE - Reform Party   (, RE)+RL - People's Union  (, RL)</t>
+  </si>
+  <si>
+    <t>M - Moderates  (Mõõdukad, M)+RE - Reform Party   (, RE)+RP - Res Publica (Res Publica, RP)</t>
+  </si>
+  <si>
+    <t>M - Moderates  (Mõõdukad, M)+RL - People's Union  (, RL)+RP - Res Publica (Res Publica, RP)</t>
+  </si>
+  <si>
+    <t>RE - Reform Party   (, RE)+RL - People's Union  (, RL)+RP - Res Publica (Res Publica, RP)</t>
+  </si>
+  <si>
+    <t>IL - Pro Patria Union (Isamaaliit, IL)+KeE - Centre Party (Keskerakond, KeE)+M - Moderates  (Mõõdukad, M)+RL - People's Union  (, RL)</t>
+  </si>
+  <si>
+    <t>IL - Pro Patria Union (Isamaaliit, IL)+KeE - Centre Party (Keskerakond, KeE)+M - Moderates  (Mõõdukad, M)+RP - Res Publica (Res Publica, RP)</t>
+  </si>
+  <si>
+    <t>IL - Pro Patria Union (Isamaaliit, IL)+KeE - Centre Party (Keskerakond, KeE)+RE - Reform Party   (, RE)+RL - People's Union  (, RL)</t>
+  </si>
+  <si>
+    <t>IL - Pro Patria Union (Isamaaliit, IL)+KeE - Centre Party (Keskerakond, KeE)+RE - Reform Party   (, RE)+RP - Res Publica (Res Publica, RP)</t>
+  </si>
+  <si>
+    <t>IL - Pro Patria Union (Isamaaliit, IL)+KeE - Centre Party (Keskerakond, KeE)+RL - People's Union  (, RL)+RP - Res Publica (Res Publica, RP)</t>
+  </si>
+  <si>
+    <t>IL - Pro Patria Union (Isamaaliit, IL)+M - Moderates  (Mõõdukad, M)+RE - Reform Party   (, RE)+RL - People's Union  (, RL)</t>
+  </si>
+  <si>
+    <t>IL - Pro Patria Union (Isamaaliit, IL)+M - Moderates  (Mõõdukad, M)+RE - Reform Party   (, RE)+RP - Res Publica (Res Publica, RP)</t>
+  </si>
+  <si>
+    <t>IL - Pro Patria Union (Isamaaliit, IL)+M - Moderates  (Mõõdukad, M)+RL - People's Union  (, RL)+RP - Res Publica (Res Publica, RP)</t>
+  </si>
+  <si>
+    <t>IL - Pro Patria Union (Isamaaliit, IL)+RE - Reform Party   (, RE)+RL - People's Union  (, RL)+RP - Res Publica (Res Publica, RP)</t>
+  </si>
+  <si>
+    <t>KeE - Centre Party (Keskerakond, KeE)+M - Moderates  (Mõõdukad, M)+RE - Reform Party   (, RE)+RL - People's Union  (, RL)</t>
+  </si>
+  <si>
+    <t>KeE - Centre Party (Keskerakond, KeE)+M - Moderates  (Mõõdukad, M)+RE - Reform Party   (, RE)+RP - Res Publica (Res Publica, RP)</t>
+  </si>
+  <si>
+    <t>KeE - Centre Party (Keskerakond, KeE)+M - Moderates  (Mõõdukad, M)+RL - People's Union  (, RL)+RP - Res Publica (Res Publica, RP)</t>
+  </si>
+  <si>
+    <t>KeE - Centre Party (Keskerakond, KeE)+RE - Reform Party   (, RE)+RL - People's Union  (, RL)+RP - Res Publica (Res Publica, RP)</t>
+  </si>
+  <si>
+    <t>M - Moderates  (Mõõdukad, M)+RE - Reform Party   (, RE)+RL - People's Union  (, RL)+RP - Res Publica (Res Publica, RP)</t>
+  </si>
+  <si>
+    <t>IL - Pro Patria Union (Isamaaliit, IL)+KeE - Centre Party (Keskerakond, KeE)+M - Moderates  (Mõõdukad, M)+RE - Reform Party   (, RE)+RL - People's Union  (, RL)</t>
+  </si>
+  <si>
+    <t>IL - Pro Patria Union (Isamaaliit, IL)+KeE - Centre Party (Keskerakond, KeE)+M - Moderates  (Mõõdukad, M)+RE - Reform Party   (, RE)+RP - Res Publica (Res Publica, RP)</t>
+  </si>
+  <si>
+    <t>IL - Pro Patria Union (Isamaaliit, IL)+KeE - Centre Party (Keskerakond, KeE)+M - Moderates  (Mõõdukad, M)+RL - People's Union  (, RL)+RP - Res Publica (Res Publica, RP)</t>
+  </si>
+  <si>
+    <t>IL - Pro Patria Union (Isamaaliit, IL)+KeE - Centre Party (Keskerakond, KeE)+RE - Reform Party   (, RE)+RL - People's Union  (, RL)+RP - Res Publica (Res Publica, RP)</t>
+  </si>
+  <si>
+    <t>IL - Pro Patria Union (Isamaaliit, IL)+M - Moderates  (Mõõdukad, M)+RE - Reform Party   (, RE)+RL - People's Union  (, RL)+RP - Res Publica (Res Publica, RP)</t>
+  </si>
+  <si>
+    <t>KeE - Centre Party (Keskerakond, KeE)+M - Moderates  (Mõõdukad, M)+RE - Reform Party   (, RE)+RL - People's Union  (, RL)+RP - Res Publica (Res Publica, RP)</t>
+  </si>
+  <si>
+    <t>IL - Pro Patria Union (Isamaaliit, IL)+KeE - Centre Party (Keskerakond, KeE)+M - Moderates  (Mõõdukad, M)+RE - Reform Party   (, RE)+RL - People's Union  (, RL)+RP - Res Publica (Res Publica, RP)</t>
+  </si>
+  <si>
+    <t>ER - Estonian Greens (Eestimaa Rohelised, ER)+ERL - People's Union  of Estonia (Eestimaa Rahvaliit, ERL)</t>
+  </si>
+  <si>
+    <t>ER - Estonian Greens (Eestimaa Rohelised, ER)+IRL - Pro Patria and Res Publica Union (Isamaa ja Res Publica Liit, IRL)</t>
+  </si>
+  <si>
+    <t>ER - Estonian Greens (Eestimaa Rohelised, ER)+KeE - Centre Party (Keskerakond, KeE)</t>
+  </si>
+  <si>
+    <t>ER - Estonian Greens (Eestimaa Rohelised, ER)+RE - Reform Party   (, RE)</t>
+  </si>
+  <si>
+    <t>ER - Estonian Greens (Eestimaa Rohelised, ER)+SDTP - Social Democratic Labour Party (, SDTP)</t>
+  </si>
+  <si>
+    <t>ERL - People's Union  of Estonia (Eestimaa Rahvaliit, ERL)+IRL - Pro Patria and Res Publica Union (Isamaa ja Res Publica Liit, IRL)</t>
+  </si>
+  <si>
+    <t>ERL - People's Union  of Estonia (Eestimaa Rahvaliit, ERL)+SDTP - Social Democratic Labour Party (, SDTP)</t>
+  </si>
+  <si>
+    <t>IRL - Pro Patria and Res Publica Union (Isamaa ja Res Publica Liit, IRL)+KeE - Centre Party (Keskerakond, KeE)</t>
+  </si>
+  <si>
+    <t>IRL - Pro Patria and Res Publica Union (Isamaa ja Res Publica Liit, IRL)+RE - Reform Party   (, RE)</t>
+  </si>
+  <si>
+    <t>IRL - Pro Patria and Res Publica Union (Isamaa ja Res Publica Liit, IRL)+SDTP - Social Democratic Labour Party (, SDTP)</t>
+  </si>
+  <si>
+    <t>KeE - Centre Party (Keskerakond, KeE)+SDTP - Social Democratic Labour Party (, SDTP)</t>
+  </si>
+  <si>
+    <t>RE - Reform Party   (, RE)+SDTP - Social Democratic Labour Party (, SDTP)</t>
+  </si>
+  <si>
+    <t>ER - Estonian Greens (Eestimaa Rohelised, ER)+ERL - People's Union  of Estonia (Eestimaa Rahvaliit, ERL)+IRL - Pro Patria and Res Publica Union (Isamaa ja Res Publica Liit, IRL)</t>
+  </si>
+  <si>
+    <t>ER - Estonian Greens (Eestimaa Rohelised, ER)+ERL - People's Union  of Estonia (Eestimaa Rahvaliit, ERL)+KeE - Centre Party (Keskerakond, KeE)</t>
+  </si>
+  <si>
+    <t>ER - Estonian Greens (Eestimaa Rohelised, ER)+ERL - People's Union  of Estonia (Eestimaa Rahvaliit, ERL)+RE - Reform Party   (, RE)</t>
+  </si>
+  <si>
+    <t>ER - Estonian Greens (Eestimaa Rohelised, ER)+ERL - People's Union  of Estonia (Eestimaa Rahvaliit, ERL)+SDTP - Social Democratic Labour Party (, SDTP)</t>
+  </si>
+  <si>
+    <t>ER - Estonian Greens (Eestimaa Rohelised, ER)+IRL - Pro Patria and Res Publica Union (Isamaa ja Res Publica Liit, IRL)+KeE - Centre Party (Keskerakond, KeE)</t>
+  </si>
+  <si>
+    <t>ER - Estonian Greens (Eestimaa Rohelised, ER)+IRL - Pro Patria and Res Publica Union (Isamaa ja Res Publica Liit, IRL)+RE - Reform Party   (, RE)</t>
+  </si>
+  <si>
+    <t>ER - Estonian Greens (Eestimaa Rohelised, ER)+IRL - Pro Patria and Res Publica Union (Isamaa ja Res Publica Liit, IRL)+SDTP - Social Democratic Labour Party (, SDTP)</t>
+  </si>
+  <si>
+    <t>ER - Estonian Greens (Eestimaa Rohelised, ER)+KeE - Centre Party (Keskerakond, KeE)+RE - Reform Party   (, RE)</t>
+  </si>
+  <si>
+    <t>ER - Estonian Greens (Eestimaa Rohelised, ER)+KeE - Centre Party (Keskerakond, KeE)+SDTP - Social Democratic Labour Party (, SDTP)</t>
+  </si>
+  <si>
+    <t>ER - Estonian Greens (Eestimaa Rohelised, ER)+RE - Reform Party   (, RE)+SDTP - Social Democratic Labour Party (, SDTP)</t>
+  </si>
+  <si>
+    <t>ERL - People's Union  of Estonia (Eestimaa Rahvaliit, ERL)+IRL - Pro Patria and Res Publica Union (Isamaa ja Res Publica Liit, IRL)+KeE - Centre Party (Keskerakond, KeE)</t>
+  </si>
+  <si>
+    <t>ERL - People's Union  of Estonia (Eestimaa Rahvaliit, ERL)+IRL - Pro Patria and Res Publica Union (Isamaa ja Res Publica Liit, IRL)+RE - Reform Party   (, RE)</t>
+  </si>
+  <si>
+    <t>ERL - People's Union  of Estonia (Eestimaa Rahvaliit, ERL)+IRL - Pro Patria and Res Publica Union (Isamaa ja Res Publica Liit, IRL)+SDTP - Social Democratic Labour Party (, SDTP)</t>
+  </si>
+  <si>
+    <t>ERL - People's Union  of Estonia (Eestimaa Rahvaliit, ERL)+KeE - Centre Party (Keskerakond, KeE)+SDTP - Social Democratic Labour Party (, SDTP)</t>
+  </si>
+  <si>
+    <t>ERL - People's Union  of Estonia (Eestimaa Rahvaliit, ERL)+RE - Reform Party   (, RE)+SDTP - Social Democratic Labour Party (, SDTP)</t>
+  </si>
+  <si>
+    <t>IRL - Pro Patria and Res Publica Union (Isamaa ja Res Publica Liit, IRL)+KeE - Centre Party (Keskerakond, KeE)+RE - Reform Party   (, RE)</t>
+  </si>
+  <si>
+    <t>IRL - Pro Patria and Res Publica Union (Isamaa ja Res Publica Liit, IRL)+KeE - Centre Party (Keskerakond, KeE)+SDTP - Social Democratic Labour Party (, SDTP)</t>
+  </si>
+  <si>
+    <t>IRL - Pro Patria and Res Publica Union (Isamaa ja Res Publica Liit, IRL)+RE - Reform Party   (, RE)+SDTP - Social Democratic Labour Party (, SDTP)</t>
+  </si>
+  <si>
+    <t>KeE - Centre Party (Keskerakond, KeE)+RE - Reform Party   (, RE)+SDTP - Social Democratic Labour Party (, SDTP)</t>
+  </si>
+  <si>
+    <t>ER - Estonian Greens (Eestimaa Rohelised, ER)+ERL - People's Union  of Estonia (Eestimaa Rahvaliit, ERL)+IRL - Pro Patria and Res Publica Union (Isamaa ja Res Publica Liit, IRL)+KeE - Centre Party (Keskerakond, KeE)</t>
+  </si>
+  <si>
+    <t>ER - Estonian Greens (Eestimaa Rohelised, ER)+ERL - People's Union  of Estonia (Eestimaa Rahvaliit, ERL)+IRL - Pro Patria and Res Publica Union (Isamaa ja Res Publica Liit, IRL)+RE - Reform Party   (, RE)</t>
+  </si>
+  <si>
+    <t>ER - Estonian Greens (Eestimaa Rohelised, ER)+ERL - People's Union  of Estonia (Eestimaa Rahvaliit, ERL)+IRL - Pro Patria and Res Publica Union (Isamaa ja Res Publica Liit, IRL)+SDTP - Social Democratic Labour Party (, SDTP)</t>
+  </si>
+  <si>
+    <t>ER - Estonian Greens (Eestimaa Rohelised, ER)+ERL - People's Union  of Estonia (Eestimaa Rahvaliit, ERL)+KeE - Centre Party (Keskerakond, KeE)+RE - Reform Party   (, RE)</t>
+  </si>
+  <si>
+    <t>ER - Estonian Greens (Eestimaa Rohelised, ER)+ERL - People's Union  of Estonia (Eestimaa Rahvaliit, ERL)+KeE - Centre Party (Keskerakond, KeE)+SDTP - Social Democratic Labour Party (, SDTP)</t>
+  </si>
+  <si>
+    <t>ER - Estonian Greens (Eestimaa Rohelised, ER)+ERL - People's Union  of Estonia (Eestimaa Rahvaliit, ERL)+RE - Reform Party   (, RE)+SDTP - Social Democratic Labour Party (, SDTP)</t>
+  </si>
+  <si>
+    <t>ER - Estonian Greens (Eestimaa Rohelised, ER)+IRL - Pro Patria and Res Publica Union (Isamaa ja Res Publica Liit, IRL)+KeE - Centre Party (Keskerakond, KeE)+RE - Reform Party   (, RE)</t>
+  </si>
+  <si>
+    <t>ER - Estonian Greens (Eestimaa Rohelised, ER)+IRL - Pro Patria and Res Publica Union (Isamaa ja Res Publica Liit, IRL)+KeE - Centre Party (Keskerakond, KeE)+SDTP - Social Democratic Labour Party (, SDTP)</t>
+  </si>
+  <si>
+    <t>ER - Estonian Greens (Eestimaa Rohelised, ER)+IRL - Pro Patria and Res Publica Union (Isamaa ja Res Publica Liit, IRL)+RE - Reform Party   (, RE)+SDTP - Social Democratic Labour Party (, SDTP)</t>
+  </si>
+  <si>
+    <t>ER - Estonian Greens (Eestimaa Rohelised, ER)+KeE - Centre Party (Keskerakond, KeE)+RE - Reform Party   (, RE)+SDTP - Social Democratic Labour Party (, SDTP)</t>
+  </si>
+  <si>
+    <t>ERL - People's Union  of Estonia (Eestimaa Rahvaliit, ERL)+IRL - Pro Patria and Res Publica Union (Isamaa ja Res Publica Liit, IRL)+KeE - Centre Party (Keskerakond, KeE)+RE - Reform Party   (, RE)</t>
+  </si>
+  <si>
+    <t>ERL - People's Union  of Estonia (Eestimaa Rahvaliit, ERL)+IRL - Pro Patria and Res Publica Union (Isamaa ja Res Publica Liit, IRL)+KeE - Centre Party (Keskerakond, KeE)+SDTP - Social Democratic Labour Party (, SDTP)</t>
+  </si>
+  <si>
+    <t>ERL - People's Union  of Estonia (Eestimaa Rahvaliit, ERL)+IRL - Pro Patria and Res Publica Union (Isamaa ja Res Publica Liit, IRL)+RE - Reform Party   (, RE)+SDTP - Social Democratic Labour Party (, SDTP)</t>
+  </si>
+  <si>
+    <t>ERL - People's Union  of Estonia (Eestimaa Rahvaliit, ERL)+KeE - Centre Party (Keskerakond, KeE)+RE - Reform Party   (, RE)+SDTP - Social Democratic Labour Party (, SDTP)</t>
+  </si>
+  <si>
+    <t>IRL - Pro Patria and Res Publica Union (Isamaa ja Res Publica Liit, IRL)+KeE - Centre Party (Keskerakond, KeE)+RE - Reform Party   (, RE)+SDTP - Social Democratic Labour Party (, SDTP)</t>
+  </si>
+  <si>
+    <t>ER - Estonian Greens (Eestimaa Rohelised, ER)+ERL - People's Union  of Estonia (Eestimaa Rahvaliit, ERL)+IRL - Pro Patria and Res Publica Union (Isamaa ja Res Publica Liit, IRL)+KeE - Centre Party (Keskerakond, KeE)+RE - Reform Party   (, RE)</t>
+  </si>
+  <si>
+    <t>ER - Estonian Greens (Eestimaa Rohelised, ER)+ERL - People's Union  of Estonia (Eestimaa Rahvaliit, ERL)+IRL - Pro Patria and Res Publica Union (Isamaa ja Res Publica Liit, IRL)+KeE - Centre Party (Keskerakond, KeE)+SDTP - Social Democratic Labour Party (, SDTP)</t>
+  </si>
+  <si>
+    <t>ER - Estonian Greens (Eestimaa Rohelised, ER)+ERL - People's Union  of Estonia (Eestimaa Rahvaliit, ERL)+IRL - Pro Patria and Res Publica Union (Isamaa ja Res Publica Liit, IRL)+RE - Reform Party   (, RE)+SDTP - Social Democratic Labour Party (, SDTP)</t>
+  </si>
+  <si>
+    <t>ER - Estonian Greens (Eestimaa Rohelised, ER)+ERL - People's Union  of Estonia (Eestimaa Rahvaliit, ERL)+KeE - Centre Party (Keskerakond, KeE)+RE - Reform Party   (, RE)+SDTP - Social Democratic Labour Party (, SDTP)</t>
+  </si>
+  <si>
+    <t>ER - Estonian Greens (Eestimaa Rohelised, ER)+IRL - Pro Patria and Res Publica Union (Isamaa ja Res Publica Liit, IRL)+KeE - Centre Party (Keskerakond, KeE)+RE - Reform Party   (, RE)+SDTP - Social Democratic Labour Party (, SDTP)</t>
+  </si>
+  <si>
+    <t>ERL - People's Union  of Estonia (Eestimaa Rahvaliit, ERL)+IRL - Pro Patria and Res Publica Union (Isamaa ja Res Publica Liit, IRL)+KeE - Centre Party (Keskerakond, KeE)+RE - Reform Party   (, RE)+SDTP - Social Democratic Labour Party (, SDTP)</t>
+  </si>
+  <si>
+    <t>ER - Estonian Greens (Eestimaa Rohelised, ER)+ERL - People's Union  of Estonia (Eestimaa Rahvaliit, ERL)+IRL - Pro Patria and Res Publica Union (Isamaa ja Res Publica Liit, IRL)+KeE - Centre Party (Keskerakond, KeE)+RE - Reform Party   (, RE)+SDTP - Social Democratic Labour Party (, SDTP)</t>
+  </si>
+  <si>
+    <t>EKRE - Conservative People’s Party (Eesti Konservatiivne Rahvaerakond, EKRE)+EVA - Estonian Free Party (Eesti Vabaerakond, EVA)</t>
+  </si>
+  <si>
+    <t>EKRE - Conservative People’s Party (Eesti Konservatiivne Rahvaerakond, EKRE)+IRL - Pro Patria and Res Publica Union (Isamaa ja Res Publica Liit, IRL)</t>
+  </si>
+  <si>
+    <t>EKRE - Conservative People’s Party (Eesti Konservatiivne Rahvaerakond, EKRE)+KeE - Centre Party (Keskerakond, KeE)</t>
+  </si>
+  <si>
+    <t>EKRE - Conservative People’s Party (Eesti Konservatiivne Rahvaerakond, EKRE)+RE - Reform Party   (, RE)</t>
+  </si>
+  <si>
+    <t>EKRE - Conservative People’s Party (Eesti Konservatiivne Rahvaerakond, EKRE)+SDTP - Social Democratic Labour Party (, SDTP)</t>
+  </si>
+  <si>
+    <t>EVA - Estonian Free Party (Eesti Vabaerakond, EVA)+IRL - Pro Patria and Res Publica Union (Isamaa ja Res Publica Liit, IRL)</t>
+  </si>
+  <si>
+    <t>EVA - Estonian Free Party (Eesti Vabaerakond, EVA)+KeE - Centre Party (Keskerakond, KeE)</t>
+  </si>
+  <si>
+    <t>EVA - Estonian Free Party (Eesti Vabaerakond, EVA)+RE - Reform Party   (, RE)</t>
+  </si>
+  <si>
+    <t>EVA - Estonian Free Party (Eesti Vabaerakond, EVA)+SDTP - Social Democratic Labour Party (, SDTP)</t>
+  </si>
+  <si>
+    <t>EKRE - Conservative People’s Party (Eesti Konservatiivne Rahvaerakond, EKRE)+EVA - Estonian Free Party (Eesti Vabaerakond, EVA)+IRL - Pro Patria and Res Publica Union (Isamaa ja Res Publica Liit, IRL)</t>
+  </si>
+  <si>
+    <t>EKRE - Conservative People’s Party (Eesti Konservatiivne Rahvaerakond, EKRE)+EVA - Estonian Free Party (Eesti Vabaerakond, EVA)+KeE - Centre Party (Keskerakond, KeE)</t>
+  </si>
+  <si>
+    <t>EKRE - Conservative People’s Party (Eesti Konservatiivne Rahvaerakond, EKRE)+EVA - Estonian Free Party (Eesti Vabaerakond, EVA)+RE - Reform Party   (, RE)</t>
+  </si>
+  <si>
+    <t>EKRE - Conservative People’s Party (Eesti Konservatiivne Rahvaerakond, EKRE)+EVA - Estonian Free Party (Eesti Vabaerakond, EVA)+SDTP - Social Democratic Labour Party (, SDTP)</t>
+  </si>
+  <si>
+    <t>EKRE - Conservative People’s Party (Eesti Konservatiivne Rahvaerakond, EKRE)+IRL - Pro Patria and Res Publica Union (Isamaa ja Res Publica Liit, IRL)+KeE - Centre Party (Keskerakond, KeE)</t>
+  </si>
+  <si>
+    <t>EKRE - Conservative People’s Party (Eesti Konservatiivne Rahvaerakond, EKRE)+IRL - Pro Patria and Res Publica Union (Isamaa ja Res Publica Liit, IRL)+RE - Reform Party   (, RE)</t>
+  </si>
+  <si>
+    <t>EKRE - Conservative People’s Party (Eesti Konservatiivne Rahvaerakond, EKRE)+IRL - Pro Patria and Res Publica Union (Isamaa ja Res Publica Liit, IRL)+SDTP - Social Democratic Labour Party (, SDTP)</t>
+  </si>
+  <si>
+    <t>EKRE - Conservative People’s Party (Eesti Konservatiivne Rahvaerakond, EKRE)+KeE - Centre Party (Keskerakond, KeE)+RE - Reform Party   (, RE)</t>
+  </si>
+  <si>
+    <t>EKRE - Conservative People’s Party (Eesti Konservatiivne Rahvaerakond, EKRE)+KeE - Centre Party (Keskerakond, KeE)+SDTP - Social Democratic Labour Party (, SDTP)</t>
+  </si>
+  <si>
+    <t>EKRE - Conservative People’s Party (Eesti Konservatiivne Rahvaerakond, EKRE)+RE - Reform Party   (, RE)+SDTP - Social Democratic Labour Party (, SDTP)</t>
+  </si>
+  <si>
+    <t>EVA - Estonian Free Party (Eesti Vabaerakond, EVA)+IRL - Pro Patria and Res Publica Union (Isamaa ja Res Publica Liit, IRL)+KeE - Centre Party (Keskerakond, KeE)</t>
+  </si>
+  <si>
+    <t>EVA - Estonian Free Party (Eesti Vabaerakond, EVA)+IRL - Pro Patria and Res Publica Union (Isamaa ja Res Publica Liit, IRL)+RE - Reform Party   (, RE)</t>
+  </si>
+  <si>
+    <t>EVA - Estonian Free Party (Eesti Vabaerakond, EVA)+IRL - Pro Patria and Res Publica Union (Isamaa ja Res Publica Liit, IRL)+SDTP - Social Democratic Labour Party (, SDTP)</t>
+  </si>
+  <si>
+    <t>EVA - Estonian Free Party (Eesti Vabaerakond, EVA)+KeE - Centre Party (Keskerakond, KeE)+RE - Reform Party   (, RE)</t>
+  </si>
+  <si>
+    <t>EVA - Estonian Free Party (Eesti Vabaerakond, EVA)+KeE - Centre Party (Keskerakond, KeE)+SDTP - Social Democratic Labour Party (, SDTP)</t>
+  </si>
+  <si>
+    <t>EVA - Estonian Free Party (Eesti Vabaerakond, EVA)+RE - Reform Party   (, RE)+SDTP - Social Democratic Labour Party (, SDTP)</t>
+  </si>
+  <si>
+    <t>EKRE - Conservative People’s Party (Eesti Konservatiivne Rahvaerakond, EKRE)+EVA - Estonian Free Party (Eesti Vabaerakond, EVA)+IRL - Pro Patria and Res Publica Union (Isamaa ja Res Publica Liit, IRL)+KeE - Centre Party (Keskerakond, KeE)</t>
+  </si>
+  <si>
+    <t>EKRE - Conservative People’s Party (Eesti Konservatiivne Rahvaerakond, EKRE)+EVA - Estonian Free Party (Eesti Vabaerakond, EVA)+IRL - Pro Patria and Res Publica Union (Isamaa ja Res Publica Liit, IRL)+RE - Reform Party   (, RE)</t>
+  </si>
+  <si>
+    <t>EKRE - Conservative People’s Party (Eesti Konservatiivne Rahvaerakond, EKRE)+EVA - Estonian Free Party (Eesti Vabaerakond, EVA)+IRL - Pro Patria and Res Publica Union (Isamaa ja Res Publica Liit, IRL)+SDTP - Social Democratic Labour Party (, SDTP)</t>
+  </si>
+  <si>
+    <t>EKRE - Conservative People’s Party (Eesti Konservatiivne Rahvaerakond, EKRE)+EVA - Estonian Free Party (Eesti Vabaerakond, EVA)+KeE - Centre Party (Keskerakond, KeE)+RE - Reform Party   (, RE)</t>
+  </si>
+  <si>
+    <t>EKRE - Conservative People’s Party (Eesti Konservatiivne Rahvaerakond, EKRE)+EVA - Estonian Free Party (Eesti Vabaerakond, EVA)+KeE - Centre Party (Keskerakond, KeE)+SDTP - Social Democratic Labour Party (, SDTP)</t>
+  </si>
+  <si>
+    <t>EKRE - Conservative People’s Party (Eesti Konservatiivne Rahvaerakond, EKRE)+EVA - Estonian Free Party (Eesti Vabaerakond, EVA)+RE - Reform Party   (, RE)+SDTP - Social Democratic Labour Party (, SDTP)</t>
+  </si>
+  <si>
+    <t>EKRE - Conservative People’s Party (Eesti Konservatiivne Rahvaerakond, EKRE)+IRL - Pro Patria and Res Publica Union (Isamaa ja Res Publica Liit, IRL)+KeE - Centre Party (Keskerakond, KeE)+RE - Reform Party   (, RE)</t>
+  </si>
+  <si>
+    <t>EKRE - Conservative People’s Party (Eesti Konservatiivne Rahvaerakond, EKRE)+IRL - Pro Patria and Res Publica Union (Isamaa ja Res Publica Liit, IRL)+KeE - Centre Party (Keskerakond, KeE)+SDTP - Social Democratic Labour Party (, SDTP)</t>
+  </si>
+  <si>
+    <t>EKRE - Conservative People’s Party (Eesti Konservatiivne Rahvaerakond, EKRE)+IRL - Pro Patria and Res Publica Union (Isamaa ja Res Publica Liit, IRL)+RE - Reform Party   (, RE)+SDTP - Social Democratic Labour Party (, SDTP)</t>
+  </si>
+  <si>
+    <t>EKRE - Conservative People’s Party (Eesti Konservatiivne Rahvaerakond, EKRE)+KeE - Centre Party (Keskerakond, KeE)+RE - Reform Party   (, RE)+SDTP - Social Democratic Labour Party (, SDTP)</t>
+  </si>
+  <si>
+    <t>EVA - Estonian Free Party (Eesti Vabaerakond, EVA)+IRL - Pro Patria and Res Publica Union (Isamaa ja Res Publica Liit, IRL)+KeE - Centre Party (Keskerakond, KeE)+RE - Reform Party   (, RE)</t>
+  </si>
+  <si>
+    <t>EVA - Estonian Free Party (Eesti Vabaerakond, EVA)+IRL - Pro Patria and Res Publica Union (Isamaa ja Res Publica Liit, IRL)+KeE - Centre Party (Keskerakond, KeE)+SDTP - Social Democratic Labour Party (, SDTP)</t>
+  </si>
+  <si>
+    <t>EVA - Estonian Free Party (Eesti Vabaerakond, EVA)+IRL - Pro Patria and Res Publica Union (Isamaa ja Res Publica Liit, IRL)+RE - Reform Party   (, RE)+SDTP - Social Democratic Labour Party (, SDTP)</t>
+  </si>
+  <si>
+    <t>EVA - Estonian Free Party (Eesti Vabaerakond, EVA)+KeE - Centre Party (Keskerakond, KeE)+RE - Reform Party   (, RE)+SDTP - Social Democratic Labour Party (, SDTP)</t>
+  </si>
+  <si>
+    <t>EKRE - Conservative People’s Party (Eesti Konservatiivne Rahvaerakond, EKRE)+EVA - Estonian Free Party (Eesti Vabaerakond, EVA)+IRL - Pro Patria and Res Publica Union (Isamaa ja Res Publica Liit, IRL)+KeE - Centre Party (Keskerakond, KeE)+RE - Reform Party   (, RE)</t>
+  </si>
+  <si>
+    <t>EKRE - Conservative People’s Party (Eesti Konservatiivne Rahvaerakond, EKRE)+EVA - Estonian Free Party (Eesti Vabaerakond, EVA)+IRL - Pro Patria and Res Publica Union (Isamaa ja Res Publica Liit, IRL)+KeE - Centre Party (Keskerakond, KeE)+SDTP - Social Democratic Labour Party (, SDTP)</t>
+  </si>
+  <si>
+    <t>EKRE - Conservative People’s Party (Eesti Konservatiivne Rahvaerakond, EKRE)+EVA - Estonian Free Party (Eesti Vabaerakond, EVA)+IRL - Pro Patria and Res Publica Union (Isamaa ja Res Publica Liit, IRL)+RE - Reform Party   (, RE)+SDTP - Social Democratic Labour Party (, SDTP)</t>
+  </si>
+  <si>
+    <t>EKRE - Conservative People’s Party (Eesti Konservatiivne Rahvaerakond, EKRE)+EVA - Estonian Free Party (Eesti Vabaerakond, EVA)+KeE - Centre Party (Keskerakond, KeE)+RE - Reform Party   (, RE)+SDTP - Social Democratic Labour Party (, SDTP)</t>
+  </si>
+  <si>
+    <t>EKRE - Conservative People’s Party (Eesti Konservatiivne Rahvaerakond, EKRE)+IRL - Pro Patria and Res Publica Union (Isamaa ja Res Publica Liit, IRL)+KeE - Centre Party (Keskerakond, KeE)+RE - Reform Party   (, RE)+SDTP - Social Democratic Labour Party (, SDTP)</t>
+  </si>
+  <si>
+    <t>EVA - Estonian Free Party (Eesti Vabaerakond, EVA)+IRL - Pro Patria and Res Publica Union (Isamaa ja Res Publica Liit, IRL)+KeE - Centre Party (Keskerakond, KeE)+RE - Reform Party   (, RE)+SDTP - Social Democratic Labour Party (, SDTP)</t>
+  </si>
+  <si>
+    <t>EKRE - Conservative People’s Party (Eesti Konservatiivne Rahvaerakond, EKRE)+EVA - Estonian Free Party (Eesti Vabaerakond, EVA)+IRL - Pro Patria and Res Publica Union (Isamaa ja Res Publica Liit, IRL)+KeE - Centre Party (Keskerakond, KeE)+RE - Reform Party   (, RE)+SDTP - Social Democratic Labour Party (, SDTP)</t>
+  </si>
+  <si>
+    <t>EKRE - Conservative People’s Party (Eesti Konservatiivne Rahvaerakond, EKRE)+IL - Pro Patria Union (Isamaaliit, IL)</t>
+  </si>
+  <si>
+    <t>EKRE - Conservative People’s Party (Eesti Konservatiivne Rahvaerakond, EKRE)+SDE - Social Democratic Party (, SDE)</t>
+  </si>
+  <si>
+    <t>IL - Pro Patria Union (Isamaaliit, IL)+SDE - Social Democratic Party (, SDE)</t>
+  </si>
+  <si>
+    <t>KeE - Centre Party (Keskerakond, KeE)+SDE - Social Democratic Party (, SDE)</t>
+  </si>
+  <si>
+    <t>RE - Reform Party   (, RE)+SDE - Social Democratic Party (, SDE)</t>
+  </si>
+  <si>
+    <t>EKRE - Conservative People’s Party (Eesti Konservatiivne Rahvaerakond, EKRE)+IL - Pro Patria Union (Isamaaliit, IL)+KeE - Centre Party (Keskerakond, KeE)</t>
+  </si>
+  <si>
+    <t>EKRE - Conservative People’s Party (Eesti Konservatiivne Rahvaerakond, EKRE)+IL - Pro Patria Union (Isamaaliit, IL)+RE - Reform Party   (, RE)</t>
+  </si>
+  <si>
+    <t>EKRE - Conservative People’s Party (Eesti Konservatiivne Rahvaerakond, EKRE)+IL - Pro Patria Union (Isamaaliit, IL)+SDE - Social Democratic Party (, SDE)</t>
+  </si>
+  <si>
+    <t>EKRE - Conservative People’s Party (Eesti Konservatiivne Rahvaerakond, EKRE)+KeE - Centre Party (Keskerakond, KeE)+SDE - Social Democratic Party (, SDE)</t>
+  </si>
+  <si>
+    <t>EKRE - Conservative People’s Party (Eesti Konservatiivne Rahvaerakond, EKRE)+RE - Reform Party   (, RE)+SDE - Social Democratic Party (, SDE)</t>
+  </si>
+  <si>
+    <t>IL - Pro Patria Union (Isamaaliit, IL)+KeE - Centre Party (Keskerakond, KeE)+SDE - Social Democratic Party (, SDE)</t>
+  </si>
+  <si>
+    <t>IL - Pro Patria Union (Isamaaliit, IL)+RE - Reform Party   (, RE)+SDE - Social Democratic Party (, SDE)</t>
+  </si>
+  <si>
+    <t>KeE - Centre Party (Keskerakond, KeE)+RE - Reform Party   (, RE)+SDE - Social Democratic Party (, SDE)</t>
+  </si>
+  <si>
+    <t>EKRE - Conservative People’s Party (Eesti Konservatiivne Rahvaerakond, EKRE)+IL - Pro Patria Union (Isamaaliit, IL)+KeE - Centre Party (Keskerakond, KeE)+RE - Reform Party   (, RE)</t>
+  </si>
+  <si>
+    <t>EKRE - Conservative People’s Party (Eesti Konservatiivne Rahvaerakond, EKRE)+IL - Pro Patria Union (Isamaaliit, IL)+KeE - Centre Party (Keskerakond, KeE)+SDE - Social Democratic Party (, SDE)</t>
+  </si>
+  <si>
+    <t>EKRE - Conservative People’s Party (Eesti Konservatiivne Rahvaerakond, EKRE)+IL - Pro Patria Union (Isamaaliit, IL)+RE - Reform Party   (, RE)+SDE - Social Democratic Party (, SDE)</t>
+  </si>
+  <si>
+    <t>EKRE - Conservative People’s Party (Eesti Konservatiivne Rahvaerakond, EKRE)+KeE - Centre Party (Keskerakond, KeE)+RE - Reform Party   (, RE)+SDE - Social Democratic Party (, SDE)</t>
+  </si>
+  <si>
+    <t>IL - Pro Patria Union (Isamaaliit, IL)+KeE - Centre Party (Keskerakond, KeE)+RE - Reform Party   (, RE)+SDE - Social Democratic Party (, SDE)</t>
+  </si>
+  <si>
+    <t>EKRE - Conservative People’s Party (Eesti Konservatiivne Rahvaerakond, EKRE)+IL - Pro Patria Union (Isamaaliit, IL)+KeE - Centre Party (Keskerakond, KeE)+RE - Reform Party   (, RE)+SDE - Social Democratic Party (, SDE)</t>
   </si>
 </sst>
 </file>
